--- a/NeoSky/Fonction et Script.xlsx
+++ b/NeoSky/Fonction et Script.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neo-Sky\NeoSky\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{882D6AD3-263F-4BE0-8C97-13D39BE7DB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E2E407-5321-4816-8BF6-DB9CA7CEC1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4785" yWindow="3660" windowWidth="21600" windowHeight="11385" xr2:uid="{4A7DE704-461B-4217-A022-346A7242C4C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A7DE704-461B-4217-A022-346A7242C4C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="122">
   <si>
     <t>fonction et script du néo sky</t>
   </si>
@@ -206,7 +206,199 @@
     <t>GrappinHock</t>
   </si>
   <si>
-    <t>a construire</t>
+    <t>normalement fini</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>awake</t>
+  </si>
+  <si>
+    <t>désactive l'interface et ferme l'inventaire</t>
+  </si>
+  <si>
+    <t>leftClic</t>
+  </si>
+  <si>
+    <t>envoie la demande d'harvest</t>
+  </si>
+  <si>
+    <t>harvest</t>
+  </si>
+  <si>
+    <t>detecte quelle objet est devant lui, et envoie a item manager les items a récolter</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>rafraichissement de la hot bar et de CheckIntercation</t>
+  </si>
+  <si>
+    <t>updateHotBar</t>
+  </si>
+  <si>
+    <t>met a jour l'état de la hot bar</t>
+  </si>
+  <si>
+    <t>CheckIntercation</t>
+  </si>
+  <si>
+    <t>affiche le "presse e to use" en fonction de l'item devant</t>
+  </si>
+  <si>
+    <t>InteractionRequest</t>
+  </si>
+  <si>
+    <t>ouvre l'inventaire en mode table de craft</t>
+  </si>
+  <si>
+    <t>Inventory Request</t>
+  </si>
+  <si>
+    <t>ferme/ouvre l'inventaire ainsi que l'accée a la table de craft</t>
+  </si>
+  <si>
+    <t>OpenInventory</t>
+  </si>
+  <si>
+    <t>ouvre l'inventaire</t>
+  </si>
+  <si>
+    <t>CloseInventory</t>
+  </si>
+  <si>
+    <t>ferme l'inventaire</t>
+  </si>
+  <si>
+    <t>devient GrappinHock</t>
+  </si>
+  <si>
+    <t>futur</t>
+  </si>
+  <si>
+    <t>la fonction n'est plus centralizer</t>
+  </si>
+  <si>
+    <t>overlay</t>
+  </si>
+  <si>
+    <t>UpdateHotbar</t>
+  </si>
+  <si>
+    <t>updateHotBat</t>
+  </si>
+  <si>
+    <t>met a jour la hotbar</t>
+  </si>
+  <si>
+    <t>InventoryAccess</t>
+  </si>
+  <si>
+    <t>a compléter</t>
+  </si>
+  <si>
+    <t>detection de la touche tab / e</t>
+  </si>
+  <si>
+    <t>InventoryOpen</t>
+  </si>
+  <si>
+    <t>onvre l'inventaire</t>
+  </si>
+  <si>
+    <t>InventoryClose</t>
+  </si>
+  <si>
+    <t>Interaction</t>
+  </si>
+  <si>
+    <t>detece si qq chose peu etre interagit et l'informe a joueur + detecte la touche e</t>
+  </si>
+  <si>
+    <t>update texte</t>
+  </si>
+  <si>
+    <t>met a jour le texte</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>s'occupe de l'interaction</t>
+  </si>
+  <si>
+    <t>interactable</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>script de donnée servant a savoir quelle est le nom de l'object a interagire</t>
+  </si>
+  <si>
+    <t>CameraDock</t>
+  </si>
+  <si>
+    <t>a refaire</t>
+  </si>
+  <si>
+    <t>BoatCRaft</t>
+  </si>
+  <si>
+    <t>a refaire / supprimer</t>
+  </si>
+  <si>
+    <t>dossier Crafting Script</t>
+  </si>
+  <si>
+    <t>verifier si il est indépendant, et le rendre si il ne l'es pas</t>
+  </si>
+  <si>
+    <t>craftingStationControler</t>
+  </si>
+  <si>
+    <t>sert de stockage pour les items</t>
+  </si>
+  <si>
+    <t>DataBoxControler</t>
+  </si>
+  <si>
+    <t>a avancer</t>
+  </si>
+  <si>
+    <t>doit servire a donnée des points de connaissance pour l'arbre de technologie</t>
+  </si>
+  <si>
+    <t>ItemController</t>
+  </si>
+  <si>
+    <t>jamais utiliser ?</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>information sur l'item et son nombre</t>
+  </si>
+  <si>
+    <t>anchorPointManager</t>
+  </si>
+  <si>
+    <t>inutile</t>
+  </si>
+  <si>
+    <t>CameraPosition</t>
+  </si>
+  <si>
+    <t>cameraposition</t>
+  </si>
+  <si>
+    <t>devient cameraManager</t>
   </si>
 </sst>
 </file>
@@ -561,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DBD4EC-58FA-4F86-AD36-30855C34F308}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,6 +766,9 @@
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="43.85546875" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -611,6 +806,9 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
+      <c r="L2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -701,6 +899,9 @@
       <c r="J9" t="s">
         <v>41</v>
       </c>
+      <c r="L9" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
@@ -896,6 +1097,9 @@
       <c r="B30" t="s">
         <v>4</v>
       </c>
+      <c r="C30" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -903,6 +1107,373 @@
       </c>
       <c r="B32" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>67</v>
+      </c>
+      <c r="J37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>69</v>
+      </c>
+      <c r="J38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>71</v>
+      </c>
+      <c r="J39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>73</v>
+      </c>
+      <c r="J40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" t="s">
+        <v>75</v>
+      </c>
+      <c r="J41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>77</v>
+      </c>
+      <c r="J42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>79</v>
+      </c>
+      <c r="J43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" t="s">
+        <v>100</v>
+      </c>
+      <c r="D64" t="s">
+        <v>100</v>
+      </c>
+      <c r="E64" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>110</v>
+      </c>
+      <c r="B66" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66" t="s">
+        <v>100</v>
+      </c>
+      <c r="D66" t="s">
+        <v>100</v>
+      </c>
+      <c r="L66" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>115</v>
+      </c>
+      <c r="B70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" t="s">
+        <v>100</v>
+      </c>
+      <c r="D70" t="s">
+        <v>100</v>
+      </c>
+      <c r="E70" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>117</v>
+      </c>
+      <c r="B72" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>119</v>
+      </c>
+      <c r="B74" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
